--- a/pred_ohlcv/54_21/2020-01-14 EOS ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-14 EOS ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>7020.168651990003</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>3644.375651990003</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>3796.686151990003</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>3796.686151990003</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>3796.686151990003</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>15236.40465199</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -626,7 +626,7 @@
         <v>29913.01965199001</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>13982.95860310001</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>12456.0932031</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>6042.864903100005</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>1934.030103100005</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-772.0460968999946</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-17986.2860969</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-16771.2760969</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-16861.5362969</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-14411.86369629999</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-14411.86369629999</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-16401.92979629999</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-9769.784296299993</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-7615.793996299994</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-4127.673296299994</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-7160.481096299995</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-5154.413196299995</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-5134.413196299995</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-5480.160196299995</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-3947.894296299994</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-4007.163096299994</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-7552.614096299994</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-4437.837396299994</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-8100.300496299994</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-4735.620596299994</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-2706.521396299994</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-2706.521396299994</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-10528.45729629999</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-9752.589796299993</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-9752.589796299993</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-9029.616896299993</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-9079.616896299993</v>
       </c>
       <c r="H125">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-8310.797896299993</v>
       </c>
       <c r="H126">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-6234.861196299993</v>
       </c>
       <c r="H127">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-6234.861196299993</v>
       </c>
       <c r="H128">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-6389.025396299993</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-6391.025396299993</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-6387.833596299994</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-6484.775796299994</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-6484.775796299994</v>
       </c>
       <c r="H133">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-11254.22691851999</v>
       </c>
       <c r="H134">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-12503.25651851999</v>
       </c>
       <c r="H135">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-15530.83831851999</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-18886.66781851999</v>
       </c>
       <c r="H137">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-18886.66781851999</v>
       </c>
       <c r="H138">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-21483.52911851999</v>
       </c>
       <c r="H142">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-20754.17941157999</v>
       </c>
       <c r="H143">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-20256.60511157999</v>
       </c>
       <c r="H144">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-19334.03351157999</v>
       </c>
       <c r="H145">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-15398.58804491999</v>
       </c>
       <c r="H146">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-13380.02364491999</v>
       </c>
       <c r="H147">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-13469.86954491999</v>
       </c>
       <c r="H148">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-13350.08504492</v>
       </c>
       <c r="H149">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>-13574.55514492</v>
       </c>
       <c r="H150">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-14421.13454492</v>
       </c>
       <c r="H151">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>-13421.13454492</v>
       </c>
       <c r="H152">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-10921.13454492</v>
       </c>
       <c r="H153">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>-14296.13444492</v>
       </c>
       <c r="H154">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>-14580.42284492</v>
       </c>
       <c r="H155">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>-13108.01074492</v>
       </c>
       <c r="H156">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>-13108.01074492</v>
       </c>
       <c r="H157">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>-13198.09544492</v>
       </c>
       <c r="H158">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>-16983.2550136</v>
       </c>
       <c r="H243">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>-19314.41601360001</v>
       </c>
       <c r="H288">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>-19314.41601360001</v>
       </c>
       <c r="H289">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>-18595.37501638001</v>
       </c>
       <c r="H290">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>-17345.37501638001</v>
       </c>
       <c r="H291">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>-17471.58111638001</v>
       </c>
       <c r="H292">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>-17558.18841638001</v>
       </c>
       <c r="H293">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>-16953.25681638001</v>
       </c>
       <c r="H294">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>-17139.85231638001</v>
       </c>
       <c r="H295">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>-28326.54271638001</v>
       </c>
       <c r="H296">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>-29895.07901638001</v>
       </c>
       <c r="H297">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>-29965.07901638001</v>
       </c>
       <c r="H298">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>-29865.07901638001</v>
       </c>
       <c r="H299">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>-29865.30001638001</v>
       </c>
       <c r="H300">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>-30033.70211638001</v>
       </c>
       <c r="H301">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>-30033.70211638001</v>
       </c>
       <c r="H302">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>-27644.93741638001</v>
       </c>
       <c r="H303">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>-27725.17441638001</v>
       </c>
       <c r="H304">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>-26907.50691638001</v>
       </c>
       <c r="H305">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>-26813.40691638001</v>
       </c>
       <c r="H306">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>-26411.76141638001</v>
       </c>
       <c r="H307">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>-24955.26581638002</v>
       </c>
       <c r="H308">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>-19132.82761638001</v>
       </c>
       <c r="H309">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>-18875.52271638002</v>
       </c>
       <c r="H310">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>-8886.293813600016</v>
       </c>
       <c r="H311">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>-9178.698813600016</v>
       </c>
       <c r="H312">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>-8268.336795290017</v>
       </c>
       <c r="H313">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>-8368.336795290017</v>
       </c>
       <c r="H314">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>23912.54423750998</v>
       </c>
       <c r="H315">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>33301.89723750998</v>
       </c>
       <c r="H316">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8634,7 +8634,7 @@
         <v>32836.22783750998</v>
       </c>
       <c r="H317">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -8660,7 +8660,7 @@
         <v>25837.19443750998</v>
       </c>
       <c r="H318">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>24728.06223750998</v>
       </c>
       <c r="H319">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>23098.92169503999</v>
       </c>
       <c r="H320">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>22744.74419503998</v>
       </c>
       <c r="H321">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>23679.20859503999</v>
       </c>
       <c r="H322">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>23679.20859503999</v>
       </c>
       <c r="H323">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>23679.20859503999</v>
       </c>
       <c r="H324">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>23005.80369503998</v>
       </c>
       <c r="H325">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>21620.21129503998</v>
       </c>
       <c r="H326">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>21650.08129503998</v>
       </c>
       <c r="H327">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>21818.68359503998</v>
       </c>
       <c r="H328">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>22012.90049503998</v>
       </c>
       <c r="H329">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>22288.90199503998</v>
       </c>
       <c r="H330">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>22288.90199503998</v>
       </c>
       <c r="H331">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>22288.90199503998</v>
       </c>
       <c r="H332">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>22288.90199503998</v>
       </c>
       <c r="H333">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -9076,7 +9076,7 @@
         <v>22288.90199503998</v>
       </c>
       <c r="H334">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>22206.12009503998</v>
       </c>
       <c r="H335">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>21300.12299503998</v>
       </c>
       <c r="H336">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9570,7 +9570,7 @@
         <v>26610.03354857998</v>
       </c>
       <c r="H353">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -9596,7 +9596,7 @@
         <v>26719.80444857998</v>
       </c>
       <c r="H354">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -9622,7 +9622,7 @@
         <v>26749.91369503998</v>
       </c>
       <c r="H355">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -9648,7 +9648,7 @@
         <v>25836.45699503998</v>
       </c>
       <c r="H356">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>28248.50456600998</v>
       </c>
       <c r="H358">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -9726,7 +9726,7 @@
         <v>27992.75096600998</v>
       </c>
       <c r="H359">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -9752,7 +9752,7 @@
         <v>28167.34146600998</v>
       </c>
       <c r="H360">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>31106.27536600998</v>
       </c>
       <c r="H361">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>30636.83477947998</v>
       </c>
       <c r="H362">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -9934,7 +9934,7 @@
         <v>25636.41738658998</v>
       </c>
       <c r="H367">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -9960,7 +9960,7 @@
         <v>25019.67588658998</v>
       </c>
       <c r="H368">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -10012,7 +10012,7 @@
         <v>27663.28532187998</v>
       </c>
       <c r="H370">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -10064,7 +10064,7 @@
         <v>32380.50002187998</v>
       </c>
       <c r="H372">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -10090,7 +10090,7 @@
         <v>32380.50002187998</v>
       </c>
       <c r="H373">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -10116,7 +10116,7 @@
         <v>39827.83852187998</v>
       </c>
       <c r="H374">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -10142,7 +10142,7 @@
         <v>38903.45332187998</v>
       </c>
       <c r="H375">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>36509.94012187998</v>
       </c>
       <c r="H376">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>34284.22042187998</v>
       </c>
       <c r="H377">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -10220,7 +10220,7 @@
         <v>34100.41802187998</v>
       </c>
       <c r="H378">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>33763.02212187998</v>
       </c>
       <c r="H379">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10506,7 +10506,7 @@
         <v>34763.62652187997</v>
       </c>
       <c r="H389">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -10532,7 +10532,7 @@
         <v>34763.62652187997</v>
       </c>
       <c r="H390">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -10558,7 +10558,7 @@
         <v>33535.59882187998</v>
       </c>
       <c r="H391">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -10584,7 +10584,7 @@
         <v>31287.00142187998</v>
       </c>
       <c r="H392">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -10636,7 +10636,7 @@
         <v>32723.03652187998</v>
       </c>
       <c r="H394">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -10662,7 +10662,7 @@
         <v>32723.03652187998</v>
       </c>
       <c r="H395">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -10688,7 +10688,7 @@
         <v>20925.79082187998</v>
       </c>
       <c r="H396">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -12092,7 +12092,7 @@
         <v>-13844.76171745003</v>
       </c>
       <c r="H450">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -12118,7 +12118,7 @@
         <v>-16077.90351745003</v>
       </c>
       <c r="H451">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -12144,7 +12144,7 @@
         <v>-16526.24031745003</v>
       </c>
       <c r="H452">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -12170,7 +12170,7 @@
         <v>-20355.34551745003</v>
       </c>
       <c r="H453">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -12196,7 +12196,7 @@
         <v>-18532.76881745003</v>
       </c>
       <c r="H454">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -12222,7 +12222,7 @@
         <v>-18532.76881745003</v>
       </c>
       <c r="H455">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -12378,7 +12378,7 @@
         <v>-20086.83191745003</v>
       </c>
       <c r="H461">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -12404,7 +12404,7 @@
         <v>-18340.57301745003</v>
       </c>
       <c r="H462">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -12690,7 +12690,7 @@
         <v>-27541.18579054003</v>
       </c>
       <c r="H473">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -12716,7 +12716,7 @@
         <v>-27541.18579054003</v>
       </c>
       <c r="H474">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -12742,7 +12742,7 @@
         <v>-27541.18579054003</v>
       </c>
       <c r="H475">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -12768,7 +12768,7 @@
         <v>-27541.18579054003</v>
       </c>
       <c r="H476">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -12794,7 +12794,7 @@
         <v>-27541.18579054003</v>
       </c>
       <c r="H477">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -12820,7 +12820,7 @@
         <v>-27541.18579054003</v>
       </c>
       <c r="H478">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -12846,7 +12846,7 @@
         <v>-27889.71389054003</v>
       </c>
       <c r="H479">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -12872,7 +12872,7 @@
         <v>-27916.21789054003</v>
       </c>
       <c r="H480">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -12898,7 +12898,7 @@
         <v>-32124.41149054003</v>
       </c>
       <c r="H481">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -12924,7 +12924,7 @@
         <v>-32124.41149054003</v>
       </c>
       <c r="H482">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -12950,7 +12950,7 @@
         <v>-32094.86549054003</v>
       </c>
       <c r="H483">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -12976,7 +12976,7 @@
         <v>-32094.86549054003</v>
       </c>
       <c r="H484">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -13002,7 +13002,7 @@
         <v>-29847.78999054003</v>
       </c>
       <c r="H485">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -13028,7 +13028,7 @@
         <v>-30170.49969054003</v>
       </c>
       <c r="H486">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -13054,7 +13054,7 @@
         <v>-30170.49969054003</v>
       </c>
       <c r="H487">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -13080,7 +13080,7 @@
         <v>-28772.22899054003</v>
       </c>
       <c r="H488">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -13106,7 +13106,7 @@
         <v>-22015.33379054003</v>
       </c>
       <c r="H489">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -13132,7 +13132,7 @@
         <v>-23056.45679054003</v>
       </c>
       <c r="H490">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -13158,7 +13158,7 @@
         <v>-16402.35009054003</v>
       </c>
       <c r="H491">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -13184,7 +13184,7 @@
         <v>-12877.79359054003</v>
       </c>
       <c r="H492">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -13210,7 +13210,7 @@
         <v>-14896.47699054003</v>
       </c>
       <c r="H493">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -13236,7 +13236,7 @@
         <v>-10052.73619054003</v>
       </c>
       <c r="H494">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -13262,7 +13262,7 @@
         <v>-5620.863390540028</v>
       </c>
       <c r="H495">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -13288,7 +13288,7 @@
         <v>-6520.831190540029</v>
       </c>
       <c r="H496">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -13314,7 +13314,7 @@
         <v>-13516.62009054003</v>
       </c>
       <c r="H497">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -13340,7 +13340,7 @@
         <v>-12419.78479054003</v>
       </c>
       <c r="H498">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -13366,7 +13366,7 @@
         <v>-12735.72409054003</v>
       </c>
       <c r="H499">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="500" spans="1:8">
@@ -13392,7 +13392,7 @@
         <v>-19002.11719054003</v>
       </c>
       <c r="H500">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="501" spans="1:8">
@@ -13418,7 +13418,7 @@
         <v>-19500.04439054003</v>
       </c>
       <c r="H501">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -13444,7 +13444,7 @@
         <v>-19483.96209054003</v>
       </c>
       <c r="H502">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -13470,7 +13470,7 @@
         <v>-19483.96209054003</v>
       </c>
       <c r="H503">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="504" spans="1:8">
@@ -13496,7 +13496,7 @@
         <v>-21287.03489054003</v>
       </c>
       <c r="H504">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="505" spans="1:8">
@@ -13522,7 +13522,7 @@
         <v>-24471.15029054003</v>
       </c>
       <c r="H505">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="506" spans="1:8">
@@ -13548,7 +13548,7 @@
         <v>-24053.67319054003</v>
       </c>
       <c r="H506">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -13574,7 +13574,7 @@
         <v>-25516.65009054003</v>
       </c>
       <c r="H507">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -13600,7 +13600,7 @@
         <v>-25509.67009054003</v>
       </c>
       <c r="H508">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -13626,7 +13626,7 @@
         <v>-25509.67009054003</v>
       </c>
       <c r="H509">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="510" spans="1:8">
@@ -13652,7 +13652,7 @@
         <v>-28388.49579054003</v>
       </c>
       <c r="H510">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="511" spans="1:8">
@@ -13678,7 +13678,7 @@
         <v>-26794.08295402003</v>
       </c>
       <c r="H511">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -13704,7 +13704,7 @@
         <v>-26794.08295402003</v>
       </c>
       <c r="H512">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -13730,7 +13730,7 @@
         <v>-30627.60975004003</v>
       </c>
       <c r="H513">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -13756,7 +13756,7 @@
         <v>-42320.31955004003</v>
       </c>
       <c r="H514">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="515" spans="1:8">
@@ -13782,7 +13782,7 @@
         <v>-42320.31955004003</v>
       </c>
       <c r="H515">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="516" spans="1:8">
@@ -13808,7 +13808,7 @@
         <v>-46818.33225004003</v>
       </c>
       <c r="H516">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="517" spans="1:8">
@@ -18410,7 +18410,7 @@
         <v>-2876150.86037999</v>
       </c>
       <c r="H693">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="694" spans="1:8">
@@ -18436,7 +18436,7 @@
         <v>-2875341.78447999</v>
       </c>
       <c r="H694">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="695" spans="1:8">
@@ -18462,7 +18462,7 @@
         <v>-2880554.06287999</v>
       </c>
       <c r="H695">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="696" spans="1:8">
@@ -19788,7 +19788,7 @@
         <v>-2901602.06675441</v>
       </c>
       <c r="H746">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="747" spans="1:8">
@@ -19814,7 +19814,7 @@
         <v>-2895211.04609989</v>
       </c>
       <c r="H747">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="748" spans="1:8">
@@ -19840,7 +19840,7 @@
         <v>-2897962.97239989</v>
       </c>
       <c r="H748">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="749" spans="1:8">
@@ -19866,7 +19866,7 @@
         <v>-2898150.92099989</v>
       </c>
       <c r="H749">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="750" spans="1:8">
@@ -19892,7 +19892,7 @@
         <v>-2903120.66779989</v>
       </c>
       <c r="H750">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="751" spans="1:8">
@@ -19918,7 +19918,7 @@
         <v>-2901658.77309989</v>
       </c>
       <c r="H751">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="752" spans="1:8">
@@ -19944,7 +19944,7 @@
         <v>-2901658.77309989</v>
       </c>
       <c r="H752">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="753" spans="1:8">
@@ -19970,7 +19970,7 @@
         <v>-2901658.77309989</v>
       </c>
       <c r="H753">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="754" spans="1:8">
@@ -19996,7 +19996,7 @@
         <v>-2903916.810699889</v>
       </c>
       <c r="H754">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="755" spans="1:8">
@@ -20022,7 +20022,7 @@
         <v>-2898449.341199889</v>
       </c>
       <c r="H755">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="756" spans="1:8">
@@ -20048,7 +20048,7 @@
         <v>-2898449.341199889</v>
       </c>
       <c r="H756">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="757" spans="1:8">
@@ -20074,7 +20074,7 @@
         <v>-2907534.114699889</v>
       </c>
       <c r="H757">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="758" spans="1:8">
@@ -20100,7 +20100,7 @@
         <v>-2918271.088999889</v>
       </c>
       <c r="H758">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="759" spans="1:8">
@@ -20126,7 +20126,7 @@
         <v>-2911459.323499889</v>
       </c>
       <c r="H759">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="760" spans="1:8">
@@ -20152,7 +20152,7 @@
         <v>-2909119.105199889</v>
       </c>
       <c r="H760">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="761" spans="1:8">
@@ -20178,7 +20178,7 @@
         <v>-2908106.977499889</v>
       </c>
       <c r="H761">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="762" spans="1:8">
@@ -20204,7 +20204,7 @@
         <v>-2908114.194899889</v>
       </c>
       <c r="H762">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="763" spans="1:8">
@@ -20230,7 +20230,7 @@
         <v>-2907945.793299889</v>
       </c>
       <c r="H763">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="764" spans="1:8">
@@ -21244,7 +21244,7 @@
         <v>-2893380.085088609</v>
       </c>
       <c r="H802">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="803" spans="1:8">
@@ -21270,7 +21270,7 @@
         <v>-2893511.008688609</v>
       </c>
       <c r="H803">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="804" spans="1:8">
@@ -21296,7 +21296,7 @@
         <v>-2892802.327288609</v>
       </c>
       <c r="H804">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="805" spans="1:8">
@@ -21322,7 +21322,7 @@
         <v>-2894352.075288609</v>
       </c>
       <c r="H805">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="806" spans="1:8">
@@ -21348,7 +21348,7 @@
         <v>-2889284.928088609</v>
       </c>
       <c r="H806">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="807" spans="1:8">
@@ -21374,7 +21374,7 @@
         <v>-2892290.541488609</v>
       </c>
       <c r="H807">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="808" spans="1:8">
@@ -21400,7 +21400,7 @@
         <v>-2891320.541588609</v>
       </c>
       <c r="H808">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="809" spans="1:8">
@@ -21426,7 +21426,7 @@
         <v>-2892277.898188609</v>
       </c>
       <c r="H809">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="810" spans="1:8">
@@ -21452,7 +21452,7 @@
         <v>-2899148.588588609</v>
       </c>
       <c r="H810">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="811" spans="1:8">
@@ -21478,7 +21478,7 @@
         <v>-2905606.724588609</v>
       </c>
       <c r="H811">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="812" spans="1:8">
@@ -21582,7 +21582,7 @@
         <v>-2913157.901288609</v>
       </c>
       <c r="H815">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="816" spans="1:8">
@@ -21608,7 +21608,7 @@
         <v>-2913157.901288609</v>
       </c>
       <c r="H816">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="817" spans="1:8">
@@ -21634,7 +21634,7 @@
         <v>-2913157.901288609</v>
       </c>
       <c r="H817">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="818" spans="1:8">
@@ -21660,7 +21660,7 @@
         <v>-2913157.901288609</v>
       </c>
       <c r="H818">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="819" spans="1:8">
@@ -22232,7 +22232,7 @@
         <v>-2926640.670680929</v>
       </c>
       <c r="H840">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="841" spans="1:8">
@@ -22258,7 +22258,7 @@
         <v>-2926640.670680929</v>
       </c>
       <c r="H841">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="842" spans="1:8">
@@ -22284,7 +22284,7 @@
         <v>-2926432.403180929</v>
       </c>
       <c r="H842">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="843" spans="1:8">
@@ -22414,7 +22414,7 @@
         <v>-2926145.492380929</v>
       </c>
       <c r="H847">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="848" spans="1:8">
@@ -22466,7 +22466,7 @@
         <v>-2929055.459280929</v>
       </c>
       <c r="H849">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="850" spans="1:8">
@@ -22492,7 +22492,7 @@
         <v>-2930084.831580929</v>
       </c>
       <c r="H850">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="851" spans="1:8">
@@ -22570,7 +22570,7 @@
         <v>-2931151.179180929</v>
       </c>
       <c r="H853">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="854" spans="1:8">
@@ -22596,7 +22596,7 @@
         <v>-2931009.294958459</v>
       </c>
       <c r="H854">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="855" spans="1:8">
@@ -22622,7 +22622,7 @@
         <v>-2934737.518258459</v>
       </c>
       <c r="H855">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="856" spans="1:8">
@@ -22648,7 +22648,7 @@
         <v>-2934442.252658459</v>
       </c>
       <c r="H856">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="857" spans="1:8">
@@ -22674,7 +22674,7 @@
         <v>-2982956.646458459</v>
       </c>
       <c r="H857">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="858" spans="1:8">
@@ -22700,7 +22700,7 @@
         <v>-2982956.646458459</v>
       </c>
       <c r="H858">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="859" spans="1:8">
@@ -22726,7 +22726,7 @@
         <v>-2992801.444958459</v>
       </c>
       <c r="H859">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="860" spans="1:8">
@@ -22752,7 +22752,7 @@
         <v>-3003542.847058459</v>
       </c>
       <c r="H860">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="861" spans="1:8">
@@ -22778,7 +22778,7 @@
         <v>-2998073.938258459</v>
       </c>
       <c r="H861">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="862" spans="1:8">
@@ -22804,7 +22804,7 @@
         <v>-3001797.739458459</v>
       </c>
       <c r="H862">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="863" spans="1:8">
@@ -22830,7 +22830,7 @@
         <v>-2994798.82735846</v>
       </c>
       <c r="H863">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="864" spans="1:8">
@@ -22856,7 +22856,7 @@
         <v>-3001569.746058459</v>
       </c>
       <c r="H864">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="865" spans="1:8">
@@ -22882,7 +22882,7 @@
         <v>-3011621.44525846</v>
       </c>
       <c r="H865">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="866" spans="1:8">
@@ -22908,7 +22908,7 @@
         <v>-3013877.36735846</v>
       </c>
       <c r="H866">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="867" spans="1:8">
@@ -22934,7 +22934,7 @@
         <v>-3026105.36105846</v>
       </c>
       <c r="H867">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="868" spans="1:8">
@@ -22960,7 +22960,7 @@
         <v>-3041004.34655846</v>
       </c>
       <c r="H868">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="869" spans="1:8">
@@ -22986,7 +22986,7 @@
         <v>-3041004.34655846</v>
       </c>
       <c r="H869">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="870" spans="1:8">
@@ -23012,7 +23012,7 @@
         <v>-3038257.59538359</v>
       </c>
       <c r="H870">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="871" spans="1:8">
@@ -23038,7 +23038,7 @@
         <v>-3045203.23878359</v>
       </c>
       <c r="H871">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="872" spans="1:8">
@@ -24832,7 +24832,7 @@
         <v>-3050634.442009749</v>
       </c>
       <c r="H940">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="941" spans="1:8">
@@ -24858,7 +24858,7 @@
         <v>-3046870.93780975</v>
       </c>
       <c r="H941">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="942" spans="1:8">
@@ -24884,7 +24884,7 @@
         <v>-3039456.731409749</v>
       </c>
       <c r="H942">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="943" spans="1:8">
@@ -24910,7 +24910,7 @@
         <v>-3039480.903309749</v>
       </c>
       <c r="H943">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="944" spans="1:8">
@@ -24936,7 +24936,7 @@
         <v>-3039480.903309749</v>
       </c>
       <c r="H944">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="945" spans="1:8">
@@ -24962,7 +24962,7 @@
         <v>-3039822.34040975</v>
       </c>
       <c r="H945">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="946" spans="1:8">
@@ -24988,7 +24988,7 @@
         <v>-3039822.34040975</v>
       </c>
       <c r="H946">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="947" spans="1:8">
@@ -25014,7 +25014,7 @@
         <v>-3039822.34040975</v>
       </c>
       <c r="H947">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="948" spans="1:8">
@@ -25040,7 +25040,7 @@
         <v>-3047327.159609749</v>
       </c>
       <c r="H948">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="949" spans="1:8">
@@ -25066,7 +25066,7 @@
         <v>-3046970.495109749</v>
       </c>
       <c r="H949">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="950" spans="1:8">
@@ -25092,7 +25092,7 @@
         <v>-3047422.397109749</v>
       </c>
       <c r="H950">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="951" spans="1:8">
@@ -25118,7 +25118,7 @@
         <v>-3049840.131067719</v>
       </c>
       <c r="H951">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="952" spans="1:8">
@@ -25144,7 +25144,7 @@
         <v>-3038253.730967719</v>
       </c>
       <c r="H952">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="953" spans="1:8">
@@ -25170,7 +25170,7 @@
         <v>-3056547.392467719</v>
       </c>
       <c r="H953">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="954" spans="1:8">
@@ -25196,7 +25196,7 @@
         <v>-3050765.052967719</v>
       </c>
       <c r="H954">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="955" spans="1:8">
@@ -25222,7 +25222,7 @@
         <v>-3042924.520477199</v>
       </c>
       <c r="H955">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="956" spans="1:8">
@@ -25248,7 +25248,7 @@
         <v>-3042924.520477199</v>
       </c>
       <c r="H956">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="957" spans="1:8">
@@ -25274,7 +25274,7 @@
         <v>-3041042.2396772</v>
       </c>
       <c r="H957">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="958" spans="1:8">
@@ -25300,7 +25300,7 @@
         <v>-3048706.6296772</v>
       </c>
       <c r="H958">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="959" spans="1:8">
@@ -25326,7 +25326,7 @@
         <v>-3050258.7562772</v>
       </c>
       <c r="H959">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="960" spans="1:8">
@@ -25352,7 +25352,7 @@
         <v>-3053000.7276772</v>
       </c>
       <c r="H960">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="961" spans="1:8">
@@ -25378,7 +25378,7 @@
         <v>-3052350.0195772</v>
       </c>
       <c r="H961">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="962" spans="1:8">
@@ -25404,7 +25404,7 @@
         <v>-3052350.0195772</v>
       </c>
       <c r="H962">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="963" spans="1:8">
@@ -25430,7 +25430,7 @@
         <v>-3036496.3300772</v>
       </c>
       <c r="H963">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="964" spans="1:8">
@@ -25456,7 +25456,7 @@
         <v>-3032257.3359772</v>
       </c>
       <c r="H964">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="965" spans="1:8">
@@ -25482,7 +25482,7 @@
         <v>-3035848.6359772</v>
       </c>
       <c r="H965">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="966" spans="1:8">
@@ -25508,7 +25508,7 @@
         <v>-3039142.3691772</v>
       </c>
       <c r="H966">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="967" spans="1:8">
@@ -25534,7 +25534,7 @@
         <v>-3054416.1947772</v>
       </c>
       <c r="H967">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="968" spans="1:8">
@@ -25560,7 +25560,7 @@
         <v>-3054416.1947772</v>
       </c>
       <c r="H968">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="969" spans="1:8">
@@ -25586,7 +25586,7 @@
         <v>-3056263.235277201</v>
       </c>
       <c r="H969">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="970" spans="1:8">
@@ -25846,7 +25846,7 @@
         <v>-3056971.498477201</v>
       </c>
       <c r="H979">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="980" spans="1:8">
@@ -25872,7 +25872,7 @@
         <v>-3058501.180177201</v>
       </c>
       <c r="H980">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="981" spans="1:8">
@@ -25898,7 +25898,7 @@
         <v>-3060590.7904772</v>
       </c>
       <c r="H981">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="982" spans="1:8">
@@ -26002,7 +26002,7 @@
         <v>-3063231.6947772</v>
       </c>
       <c r="H985">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="986" spans="1:8">
@@ -26028,7 +26028,7 @@
         <v>-3067099.7817772</v>
       </c>
       <c r="H986">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="987" spans="1:8">
@@ -26054,7 +26054,7 @@
         <v>-3067099.7817772</v>
       </c>
       <c r="H987">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="988" spans="1:8">
@@ -26080,7 +26080,7 @@
         <v>-3068189.1052772</v>
       </c>
       <c r="H988">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="989" spans="1:8">
@@ -26106,7 +26106,7 @@
         <v>-3067763.5422772</v>
       </c>
       <c r="H989">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="990" spans="1:8">
@@ -26132,7 +26132,7 @@
         <v>-3067904.5522772</v>
       </c>
       <c r="H990">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="991" spans="1:8">
@@ -26158,7 +26158,7 @@
         <v>-3068404.5522772</v>
       </c>
       <c r="H991">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="992" spans="1:8">
@@ -26184,7 +26184,7 @@
         <v>-3068511.2125772</v>
       </c>
       <c r="H992">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="993" spans="1:8">
@@ -26210,7 +26210,7 @@
         <v>-3068788.2974772</v>
       </c>
       <c r="H993">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="994" spans="1:8">
@@ -26236,7 +26236,7 @@
         <v>-3067417.9610772</v>
       </c>
       <c r="H994">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="995" spans="1:8">
@@ -26314,7 +26314,7 @@
         <v>-3074506.8028772</v>
       </c>
       <c r="H997">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="998" spans="1:8">
@@ -26366,7 +26366,7 @@
         <v>-3075023.2368772</v>
       </c>
       <c r="H999">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1000" spans="1:8">
@@ -26392,7 +26392,7 @@
         <v>-3075023.2368772</v>
       </c>
       <c r="H1000">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1001" spans="1:8">
@@ -26418,7 +26418,7 @@
         <v>-3075023.2368772</v>
       </c>
       <c r="H1001">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1002" spans="1:8">
@@ -26444,7 +26444,7 @@
         <v>-3075024.2368772</v>
       </c>
       <c r="H1002">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1003" spans="1:8">
@@ -27120,7 +27120,7 @@
         <v>-3086631.3089772</v>
       </c>
       <c r="H1028">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1029" spans="1:8">
@@ -27146,7 +27146,7 @@
         <v>-3086628.4600772</v>
       </c>
       <c r="H1029">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1030" spans="1:8">
@@ -27172,7 +27172,7 @@
         <v>-3086528.4600772</v>
       </c>
       <c r="H1030">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1031" spans="1:8">
@@ -27198,7 +27198,7 @@
         <v>-3086528.4600772</v>
       </c>
       <c r="H1031">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1032" spans="1:8">
@@ -27224,7 +27224,7 @@
         <v>-3086894.209077199</v>
       </c>
       <c r="H1032">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1033" spans="1:8">
@@ -27250,7 +27250,7 @@
         <v>-3086895.3090772</v>
       </c>
       <c r="H1033">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1034" spans="1:8">
@@ -27276,7 +27276,7 @@
         <v>-3086317.1340772</v>
       </c>
       <c r="H1034">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1035" spans="1:8">
@@ -29850,7 +29850,7 @@
         <v>-3090181.55063904</v>
       </c>
       <c r="H1133">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2020-01-14 EOS ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-14 EOS ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>7020.168651990003</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>3644.375651990003</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>3796.686151990003</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>3796.686151990003</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>3796.686151990003</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>15236.40465199</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -626,7 +626,7 @@
         <v>29913.01965199001</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>13982.95860310001</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>12456.0932031</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>6042.864903100005</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>1934.030103100005</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-772.0460968999946</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-17986.2860969</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-14411.86369629999</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-16401.92979629999</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-7615.793996299994</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-4127.673296299994</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-7160.481096299995</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-5154.413196299995</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-5134.413196299995</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-5480.160196299995</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-3947.894296299994</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-4007.163096299994</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-7552.614096299994</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-4437.837396299994</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-8100.300496299994</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-4735.620596299994</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-2706.521396299994</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-2706.521396299994</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-10528.45729629999</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-9752.589796299993</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-9752.589796299993</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-9029.616896299993</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-9079.616896299993</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-8310.797896299993</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-6234.861196299993</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-6234.861196299993</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-6389.025396299993</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-6391.025396299993</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-6387.833596299994</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-6484.775796299994</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-6484.775796299994</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-11254.22691851999</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-12503.25651851999</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-15530.83831851999</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-18886.66781851999</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-18886.66781851999</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-20754.17941157999</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-13380.02364491999</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-13469.86954491999</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-13350.08504492</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>-13574.55514492</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-14421.13454492</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>-13421.13454492</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>-14296.13444492</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>-14580.42284492</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>-15871.4661136</v>
       </c>
       <c r="H235">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>-15871.4661136</v>
       </c>
       <c r="H236">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>-15871.4661136</v>
       </c>
       <c r="H237">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>-15871.4661136</v>
       </c>
       <c r="H238">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>-16378.5793136</v>
       </c>
       <c r="H240">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>-19314.41601360001</v>
       </c>
       <c r="H288">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>-19314.41601360001</v>
       </c>
       <c r="H289">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>-18595.37501638001</v>
       </c>
       <c r="H290">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>-17345.37501638001</v>
       </c>
       <c r="H291">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>-17471.58111638001</v>
       </c>
       <c r="H292">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>-17558.18841638001</v>
       </c>
       <c r="H293">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>-16953.25681638001</v>
       </c>
       <c r="H294">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>-17139.85231638001</v>
       </c>
       <c r="H295">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>-28326.54271638001</v>
       </c>
       <c r="H296">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>-29895.07901638001</v>
       </c>
       <c r="H297">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>-29965.07901638001</v>
       </c>
       <c r="H298">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>-29865.07901638001</v>
       </c>
       <c r="H299">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>-29865.30001638001</v>
       </c>
       <c r="H300">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>-30033.70211638001</v>
       </c>
       <c r="H301">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>-30033.70211638001</v>
       </c>
       <c r="H302">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>-27644.93741638001</v>
       </c>
       <c r="H303">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>-27725.17441638001</v>
       </c>
       <c r="H304">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>-26907.50691638001</v>
       </c>
       <c r="H305">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>-26813.40691638001</v>
       </c>
       <c r="H306">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>-26411.76141638001</v>
       </c>
       <c r="H307">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>-24955.26581638002</v>
       </c>
       <c r="H308">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>-19132.82761638001</v>
       </c>
       <c r="H309">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>-18875.52271638002</v>
       </c>
       <c r="H310">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>-8886.293813600016</v>
       </c>
       <c r="H311">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>-9178.698813600016</v>
       </c>
       <c r="H312">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>-8268.336795290017</v>
       </c>
       <c r="H313">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>-8368.336795290017</v>
       </c>
       <c r="H314">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>23912.54423750998</v>
       </c>
       <c r="H315">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>33301.89723750998</v>
       </c>
       <c r="H316">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8634,7 +8634,7 @@
         <v>32836.22783750998</v>
       </c>
       <c r="H317">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -8660,7 +8660,7 @@
         <v>25837.19443750998</v>
       </c>
       <c r="H318">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>24728.06223750998</v>
       </c>
       <c r="H319">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>23098.92169503999</v>
       </c>
       <c r="H320">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>22744.74419503998</v>
       </c>
       <c r="H321">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>23679.20859503999</v>
       </c>
       <c r="H322">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>23679.20859503999</v>
       </c>
       <c r="H323">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>23679.20859503999</v>
       </c>
       <c r="H324">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>23005.80369503998</v>
       </c>
       <c r="H325">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>21620.21129503998</v>
       </c>
       <c r="H326">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>21650.08129503998</v>
       </c>
       <c r="H327">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>21818.68359503998</v>
       </c>
       <c r="H328">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>22012.90049503998</v>
       </c>
       <c r="H329">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>22288.90199503998</v>
       </c>
       <c r="H330">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>22288.90199503998</v>
       </c>
       <c r="H331">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>22288.90199503998</v>
       </c>
       <c r="H332">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>22288.90199503998</v>
       </c>
       <c r="H333">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -9076,7 +9076,7 @@
         <v>22288.90199503998</v>
       </c>
       <c r="H334">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>22206.12009503998</v>
       </c>
       <c r="H335">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>21300.12299503998</v>
       </c>
       <c r="H336">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>21300.12299503998</v>
       </c>
       <c r="H337">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>21313.79249503998</v>
       </c>
       <c r="H338">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>21283.79249503998</v>
       </c>
       <c r="H339">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>21284.15104857998</v>
       </c>
       <c r="H340">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -9258,7 +9258,7 @@
         <v>21283.96574857998</v>
       </c>
       <c r="H341">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -9284,7 +9284,7 @@
         <v>20303.54044857998</v>
       </c>
       <c r="H342">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -9310,7 +9310,7 @@
         <v>20185.42594857998</v>
       </c>
       <c r="H343">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -9336,7 +9336,7 @@
         <v>18542.67594857998</v>
       </c>
       <c r="H344">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -9570,7 +9570,7 @@
         <v>26610.03354857998</v>
       </c>
       <c r="H353">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -9622,7 +9622,7 @@
         <v>26749.91369503998</v>
       </c>
       <c r="H355">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -9648,7 +9648,7 @@
         <v>25836.45699503998</v>
       </c>
       <c r="H356">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -9674,7 +9674,7 @@
         <v>26678.71169503998</v>
       </c>
       <c r="H357">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>28248.50456600998</v>
       </c>
       <c r="H358">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -9726,7 +9726,7 @@
         <v>27992.75096600998</v>
       </c>
       <c r="H359">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -9752,7 +9752,7 @@
         <v>28167.34146600998</v>
       </c>
       <c r="H360">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>31106.27536600998</v>
       </c>
       <c r="H361">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>30636.83477947998</v>
       </c>
       <c r="H362">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>29253.65329770998</v>
       </c>
       <c r="H363">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>29516.84308658998</v>
       </c>
       <c r="H364">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -9882,7 +9882,7 @@
         <v>29516.84308658998</v>
       </c>
       <c r="H365">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>29516.84308658998</v>
       </c>
       <c r="H366">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -9934,7 +9934,7 @@
         <v>25636.41738658998</v>
       </c>
       <c r="H367">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -9960,7 +9960,7 @@
         <v>25019.67588658998</v>
       </c>
       <c r="H368">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -10090,7 +10090,7 @@
         <v>32380.50002187998</v>
       </c>
       <c r="H373">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -10116,7 +10116,7 @@
         <v>39827.83852187998</v>
       </c>
       <c r="H374">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -10142,7 +10142,7 @@
         <v>38903.45332187998</v>
       </c>
       <c r="H375">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>36509.94012187998</v>
       </c>
       <c r="H376">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -10506,7 +10506,7 @@
         <v>34763.62652187997</v>
       </c>
       <c r="H389">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -10532,7 +10532,7 @@
         <v>34763.62652187997</v>
       </c>
       <c r="H390">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -12092,7 +12092,7 @@
         <v>-13844.76171745003</v>
       </c>
       <c r="H450">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -12118,7 +12118,7 @@
         <v>-16077.90351745003</v>
       </c>
       <c r="H451">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -12144,7 +12144,7 @@
         <v>-16526.24031745003</v>
       </c>
       <c r="H452">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -12170,7 +12170,7 @@
         <v>-20355.34551745003</v>
       </c>
       <c r="H453">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -12196,7 +12196,7 @@
         <v>-18532.76881745003</v>
       </c>
       <c r="H454">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -12222,7 +12222,7 @@
         <v>-18532.76881745003</v>
       </c>
       <c r="H455">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -12378,7 +12378,7 @@
         <v>-20086.83191745003</v>
       </c>
       <c r="H461">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -12404,7 +12404,7 @@
         <v>-18340.57301745003</v>
       </c>
       <c r="H462">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -12690,7 +12690,7 @@
         <v>-27541.18579054003</v>
       </c>
       <c r="H473">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -12716,7 +12716,7 @@
         <v>-27541.18579054003</v>
       </c>
       <c r="H474">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -12742,7 +12742,7 @@
         <v>-27541.18579054003</v>
       </c>
       <c r="H475">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -12768,7 +12768,7 @@
         <v>-27541.18579054003</v>
       </c>
       <c r="H476">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -12794,7 +12794,7 @@
         <v>-27541.18579054003</v>
       </c>
       <c r="H477">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -12820,7 +12820,7 @@
         <v>-27541.18579054003</v>
       </c>
       <c r="H478">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -12846,7 +12846,7 @@
         <v>-27889.71389054003</v>
       </c>
       <c r="H479">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -12872,7 +12872,7 @@
         <v>-27916.21789054003</v>
       </c>
       <c r="H480">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -12898,7 +12898,7 @@
         <v>-32124.41149054003</v>
       </c>
       <c r="H481">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -12924,7 +12924,7 @@
         <v>-32124.41149054003</v>
       </c>
       <c r="H482">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -12950,7 +12950,7 @@
         <v>-32094.86549054003</v>
       </c>
       <c r="H483">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -12976,7 +12976,7 @@
         <v>-32094.86549054003</v>
       </c>
       <c r="H484">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -13002,7 +13002,7 @@
         <v>-29847.78999054003</v>
       </c>
       <c r="H485">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -13028,7 +13028,7 @@
         <v>-30170.49969054003</v>
       </c>
       <c r="H486">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -13054,7 +13054,7 @@
         <v>-30170.49969054003</v>
       </c>
       <c r="H487">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -13080,7 +13080,7 @@
         <v>-28772.22899054003</v>
       </c>
       <c r="H488">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -13106,7 +13106,7 @@
         <v>-22015.33379054003</v>
       </c>
       <c r="H489">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -13132,7 +13132,7 @@
         <v>-23056.45679054003</v>
       </c>
       <c r="H490">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -13158,7 +13158,7 @@
         <v>-16402.35009054003</v>
       </c>
       <c r="H491">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -13184,7 +13184,7 @@
         <v>-12877.79359054003</v>
       </c>
       <c r="H492">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -13210,7 +13210,7 @@
         <v>-14896.47699054003</v>
       </c>
       <c r="H493">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -13236,7 +13236,7 @@
         <v>-10052.73619054003</v>
       </c>
       <c r="H494">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -13262,7 +13262,7 @@
         <v>-5620.863390540028</v>
       </c>
       <c r="H495">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -13288,7 +13288,7 @@
         <v>-6520.831190540029</v>
       </c>
       <c r="H496">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -13314,7 +13314,7 @@
         <v>-13516.62009054003</v>
       </c>
       <c r="H497">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -13340,7 +13340,7 @@
         <v>-12419.78479054003</v>
       </c>
       <c r="H498">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -13366,7 +13366,7 @@
         <v>-12735.72409054003</v>
       </c>
       <c r="H499">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="500" spans="1:8">
@@ -13392,7 +13392,7 @@
         <v>-19002.11719054003</v>
       </c>
       <c r="H500">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="501" spans="1:8">
@@ -13418,7 +13418,7 @@
         <v>-19500.04439054003</v>
       </c>
       <c r="H501">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -13444,7 +13444,7 @@
         <v>-19483.96209054003</v>
       </c>
       <c r="H502">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -13470,7 +13470,7 @@
         <v>-19483.96209054003</v>
       </c>
       <c r="H503">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="504" spans="1:8">
@@ -13496,7 +13496,7 @@
         <v>-21287.03489054003</v>
       </c>
       <c r="H504">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="505" spans="1:8">
@@ -13522,7 +13522,7 @@
         <v>-24471.15029054003</v>
       </c>
       <c r="H505">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="506" spans="1:8">
@@ -13548,7 +13548,7 @@
         <v>-24053.67319054003</v>
       </c>
       <c r="H506">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -13574,7 +13574,7 @@
         <v>-25516.65009054003</v>
       </c>
       <c r="H507">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -13600,7 +13600,7 @@
         <v>-25509.67009054003</v>
       </c>
       <c r="H508">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -13626,7 +13626,7 @@
         <v>-25509.67009054003</v>
       </c>
       <c r="H509">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="510" spans="1:8">
@@ -13652,7 +13652,7 @@
         <v>-28388.49579054003</v>
       </c>
       <c r="H510">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="511" spans="1:8">
@@ -13678,7 +13678,7 @@
         <v>-26794.08295402003</v>
       </c>
       <c r="H511">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -13704,7 +13704,7 @@
         <v>-26794.08295402003</v>
       </c>
       <c r="H512">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -13730,7 +13730,7 @@
         <v>-30627.60975004003</v>
       </c>
       <c r="H513">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -13756,7 +13756,7 @@
         <v>-42320.31955004003</v>
       </c>
       <c r="H514">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="515" spans="1:8">
@@ -13782,7 +13782,7 @@
         <v>-42320.31955004003</v>
       </c>
       <c r="H515">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="516" spans="1:8">
@@ -13808,7 +13808,7 @@
         <v>-46818.33225004003</v>
       </c>
       <c r="H516">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="517" spans="1:8">
@@ -18670,7 +18670,7 @@
         <v>-2886756.88957999</v>
       </c>
       <c r="H703">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="704" spans="1:8">
@@ -18696,7 +18696,7 @@
         <v>-2886769.069579991</v>
       </c>
       <c r="H704">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="705" spans="1:8">
@@ -18722,7 +18722,7 @@
         <v>-2886769.069579991</v>
       </c>
       <c r="H705">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="706" spans="1:8">
@@ -19814,7 +19814,7 @@
         <v>-2895211.04609989</v>
       </c>
       <c r="H747">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="748" spans="1:8">
@@ -19840,7 +19840,7 @@
         <v>-2897962.97239989</v>
       </c>
       <c r="H748">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="749" spans="1:8">
@@ -19866,7 +19866,7 @@
         <v>-2898150.92099989</v>
       </c>
       <c r="H749">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="750" spans="1:8">
@@ -19892,7 +19892,7 @@
         <v>-2903120.66779989</v>
       </c>
       <c r="H750">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="751" spans="1:8">
@@ -19918,7 +19918,7 @@
         <v>-2901658.77309989</v>
       </c>
       <c r="H751">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="752" spans="1:8">
@@ -19944,7 +19944,7 @@
         <v>-2901658.77309989</v>
       </c>
       <c r="H752">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="753" spans="1:8">
@@ -19970,7 +19970,7 @@
         <v>-2901658.77309989</v>
       </c>
       <c r="H753">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="754" spans="1:8">
@@ -19996,7 +19996,7 @@
         <v>-2903916.810699889</v>
       </c>
       <c r="H754">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="755" spans="1:8">
@@ -20022,7 +20022,7 @@
         <v>-2898449.341199889</v>
       </c>
       <c r="H755">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="756" spans="1:8">
@@ -20048,7 +20048,7 @@
         <v>-2898449.341199889</v>
       </c>
       <c r="H756">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="757" spans="1:8">
@@ -20074,7 +20074,7 @@
         <v>-2907534.114699889</v>
       </c>
       <c r="H757">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="758" spans="1:8">
@@ -20100,7 +20100,7 @@
         <v>-2918271.088999889</v>
       </c>
       <c r="H758">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="759" spans="1:8">
@@ -20126,7 +20126,7 @@
         <v>-2911459.323499889</v>
       </c>
       <c r="H759">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="760" spans="1:8">
@@ -20152,7 +20152,7 @@
         <v>-2909119.105199889</v>
       </c>
       <c r="H760">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="761" spans="1:8">
@@ -20178,7 +20178,7 @@
         <v>-2908106.977499889</v>
       </c>
       <c r="H761">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="762" spans="1:8">
@@ -20204,7 +20204,7 @@
         <v>-2908114.194899889</v>
       </c>
       <c r="H762">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="763" spans="1:8">
@@ -20230,7 +20230,7 @@
         <v>-2907945.793299889</v>
       </c>
       <c r="H763">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="764" spans="1:8">
@@ -20256,7 +20256,7 @@
         <v>-2907915.793299889</v>
       </c>
       <c r="H764">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="765" spans="1:8">
@@ -20282,7 +20282,7 @@
         <v>-2908452.401699889</v>
       </c>
       <c r="H765">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="766" spans="1:8">
@@ -20308,7 +20308,7 @@
         <v>-2908452.401699889</v>
       </c>
       <c r="H766">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="767" spans="1:8">
@@ -20334,7 +20334,7 @@
         <v>-2907054.070899889</v>
       </c>
       <c r="H767">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="768" spans="1:8">
@@ -21244,7 +21244,7 @@
         <v>-2893380.085088609</v>
       </c>
       <c r="H802">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="803" spans="1:8">
@@ -21270,7 +21270,7 @@
         <v>-2893511.008688609</v>
       </c>
       <c r="H803">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="804" spans="1:8">
@@ -21296,7 +21296,7 @@
         <v>-2892802.327288609</v>
       </c>
       <c r="H804">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="805" spans="1:8">
@@ -21322,7 +21322,7 @@
         <v>-2894352.075288609</v>
       </c>
       <c r="H805">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="806" spans="1:8">
@@ -21348,7 +21348,7 @@
         <v>-2889284.928088609</v>
       </c>
       <c r="H806">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="807" spans="1:8">
@@ -21374,7 +21374,7 @@
         <v>-2892290.541488609</v>
       </c>
       <c r="H807">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="808" spans="1:8">
@@ -21400,7 +21400,7 @@
         <v>-2891320.541588609</v>
       </c>
       <c r="H808">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="809" spans="1:8">
@@ -21426,7 +21426,7 @@
         <v>-2892277.898188609</v>
       </c>
       <c r="H809">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="810" spans="1:8">
@@ -21452,7 +21452,7 @@
         <v>-2899148.588588609</v>
       </c>
       <c r="H810">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="811" spans="1:8">
@@ -21478,7 +21478,7 @@
         <v>-2905606.724588609</v>
       </c>
       <c r="H811">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="812" spans="1:8">
@@ -22232,7 +22232,7 @@
         <v>-2926640.670680929</v>
       </c>
       <c r="H840">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="841" spans="1:8">
@@ -22258,7 +22258,7 @@
         <v>-2926640.670680929</v>
       </c>
       <c r="H841">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="842" spans="1:8">
@@ -22284,7 +22284,7 @@
         <v>-2926432.403180929</v>
       </c>
       <c r="H842">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="843" spans="1:8">
@@ -22414,7 +22414,7 @@
         <v>-2926145.492380929</v>
       </c>
       <c r="H847">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="848" spans="1:8">
@@ -22466,7 +22466,7 @@
         <v>-2929055.459280929</v>
       </c>
       <c r="H849">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="850" spans="1:8">
@@ -22492,7 +22492,7 @@
         <v>-2930084.831580929</v>
       </c>
       <c r="H850">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="851" spans="1:8">
@@ -22570,7 +22570,7 @@
         <v>-2931151.179180929</v>
       </c>
       <c r="H853">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="854" spans="1:8">
@@ -22596,7 +22596,7 @@
         <v>-2931009.294958459</v>
       </c>
       <c r="H854">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="855" spans="1:8">
@@ -22622,7 +22622,7 @@
         <v>-2934737.518258459</v>
       </c>
       <c r="H855">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="856" spans="1:8">
@@ -22648,7 +22648,7 @@
         <v>-2934442.252658459</v>
       </c>
       <c r="H856">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="857" spans="1:8">
@@ -22674,7 +22674,7 @@
         <v>-2982956.646458459</v>
       </c>
       <c r="H857">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="858" spans="1:8">
@@ -22700,7 +22700,7 @@
         <v>-2982956.646458459</v>
       </c>
       <c r="H858">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="859" spans="1:8">
@@ -22726,7 +22726,7 @@
         <v>-2992801.444958459</v>
       </c>
       <c r="H859">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="860" spans="1:8">
@@ -22752,7 +22752,7 @@
         <v>-3003542.847058459</v>
       </c>
       <c r="H860">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="861" spans="1:8">
@@ -22778,7 +22778,7 @@
         <v>-2998073.938258459</v>
       </c>
       <c r="H861">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="862" spans="1:8">
@@ -22804,7 +22804,7 @@
         <v>-3001797.739458459</v>
       </c>
       <c r="H862">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="863" spans="1:8">
@@ -22830,7 +22830,7 @@
         <v>-2994798.82735846</v>
       </c>
       <c r="H863">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="864" spans="1:8">
@@ -22856,7 +22856,7 @@
         <v>-3001569.746058459</v>
       </c>
       <c r="H864">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="865" spans="1:8">
@@ -22882,7 +22882,7 @@
         <v>-3011621.44525846</v>
       </c>
       <c r="H865">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="866" spans="1:8">
@@ -22908,7 +22908,7 @@
         <v>-3013877.36735846</v>
       </c>
       <c r="H866">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="867" spans="1:8">
@@ -22934,7 +22934,7 @@
         <v>-3026105.36105846</v>
       </c>
       <c r="H867">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="868" spans="1:8">
@@ -22960,7 +22960,7 @@
         <v>-3041004.34655846</v>
       </c>
       <c r="H868">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="869" spans="1:8">
@@ -22986,7 +22986,7 @@
         <v>-3041004.34655846</v>
       </c>
       <c r="H869">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="870" spans="1:8">
@@ -23012,7 +23012,7 @@
         <v>-3038257.59538359</v>
       </c>
       <c r="H870">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="871" spans="1:8">
@@ -23038,7 +23038,7 @@
         <v>-3045203.23878359</v>
       </c>
       <c r="H871">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="872" spans="1:8">
@@ -24832,7 +24832,7 @@
         <v>-3050634.442009749</v>
       </c>
       <c r="H940">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="941" spans="1:8">
@@ -24858,7 +24858,7 @@
         <v>-3046870.93780975</v>
       </c>
       <c r="H941">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="942" spans="1:8">
@@ -24884,7 +24884,7 @@
         <v>-3039456.731409749</v>
       </c>
       <c r="H942">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="943" spans="1:8">
@@ -24910,7 +24910,7 @@
         <v>-3039480.903309749</v>
       </c>
       <c r="H943">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="944" spans="1:8">
@@ -24936,7 +24936,7 @@
         <v>-3039480.903309749</v>
       </c>
       <c r="H944">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="945" spans="1:8">
@@ -24962,7 +24962,7 @@
         <v>-3039822.34040975</v>
       </c>
       <c r="H945">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="946" spans="1:8">
@@ -24988,7 +24988,7 @@
         <v>-3039822.34040975</v>
       </c>
       <c r="H946">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="947" spans="1:8">
@@ -25014,7 +25014,7 @@
         <v>-3039822.34040975</v>
       </c>
       <c r="H947">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="948" spans="1:8">
@@ -25040,7 +25040,7 @@
         <v>-3047327.159609749</v>
       </c>
       <c r="H948">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="949" spans="1:8">
@@ -25066,7 +25066,7 @@
         <v>-3046970.495109749</v>
       </c>
       <c r="H949">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="950" spans="1:8">
@@ -25092,7 +25092,7 @@
         <v>-3047422.397109749</v>
       </c>
       <c r="H950">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="951" spans="1:8">
@@ -25118,7 +25118,7 @@
         <v>-3049840.131067719</v>
       </c>
       <c r="H951">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="952" spans="1:8">
@@ -25144,7 +25144,7 @@
         <v>-3038253.730967719</v>
       </c>
       <c r="H952">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="953" spans="1:8">
@@ -25170,7 +25170,7 @@
         <v>-3056547.392467719</v>
       </c>
       <c r="H953">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="954" spans="1:8">
@@ -25196,7 +25196,7 @@
         <v>-3050765.052967719</v>
       </c>
       <c r="H954">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="955" spans="1:8">
@@ -25222,7 +25222,7 @@
         <v>-3042924.520477199</v>
       </c>
       <c r="H955">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="956" spans="1:8">
@@ -25248,7 +25248,7 @@
         <v>-3042924.520477199</v>
       </c>
       <c r="H956">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="957" spans="1:8">
@@ -25274,7 +25274,7 @@
         <v>-3041042.2396772</v>
       </c>
       <c r="H957">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="958" spans="1:8">
@@ -25300,7 +25300,7 @@
         <v>-3048706.6296772</v>
       </c>
       <c r="H958">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="959" spans="1:8">
@@ -25326,7 +25326,7 @@
         <v>-3050258.7562772</v>
       </c>
       <c r="H959">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="960" spans="1:8">
@@ -25352,7 +25352,7 @@
         <v>-3053000.7276772</v>
       </c>
       <c r="H960">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="961" spans="1:8">
@@ -25378,7 +25378,7 @@
         <v>-3052350.0195772</v>
       </c>
       <c r="H961">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="962" spans="1:8">
@@ -25404,7 +25404,7 @@
         <v>-3052350.0195772</v>
       </c>
       <c r="H962">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="963" spans="1:8">
@@ -25430,7 +25430,7 @@
         <v>-3036496.3300772</v>
       </c>
       <c r="H963">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="964" spans="1:8">
@@ -25456,7 +25456,7 @@
         <v>-3032257.3359772</v>
       </c>
       <c r="H964">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="965" spans="1:8">
@@ -25482,7 +25482,7 @@
         <v>-3035848.6359772</v>
       </c>
       <c r="H965">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="966" spans="1:8">
@@ -25508,7 +25508,7 @@
         <v>-3039142.3691772</v>
       </c>
       <c r="H966">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="967" spans="1:8">
@@ -25534,7 +25534,7 @@
         <v>-3054416.1947772</v>
       </c>
       <c r="H967">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="968" spans="1:8">
@@ -25560,7 +25560,7 @@
         <v>-3054416.1947772</v>
       </c>
       <c r="H968">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="969" spans="1:8">
@@ -25586,7 +25586,7 @@
         <v>-3056263.235277201</v>
       </c>
       <c r="H969">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="970" spans="1:8">
@@ -25846,7 +25846,7 @@
         <v>-3056971.498477201</v>
       </c>
       <c r="H979">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="980" spans="1:8">
@@ -25872,7 +25872,7 @@
         <v>-3058501.180177201</v>
       </c>
       <c r="H980">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="981" spans="1:8">
@@ -25898,7 +25898,7 @@
         <v>-3060590.7904772</v>
       </c>
       <c r="H981">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="982" spans="1:8">
@@ -26002,7 +26002,7 @@
         <v>-3063231.6947772</v>
       </c>
       <c r="H985">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="986" spans="1:8">
@@ -26028,7 +26028,7 @@
         <v>-3067099.7817772</v>
       </c>
       <c r="H986">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="987" spans="1:8">
@@ -26054,7 +26054,7 @@
         <v>-3067099.7817772</v>
       </c>
       <c r="H987">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="988" spans="1:8">
@@ -26080,7 +26080,7 @@
         <v>-3068189.1052772</v>
       </c>
       <c r="H988">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="989" spans="1:8">
@@ -26106,7 +26106,7 @@
         <v>-3067763.5422772</v>
       </c>
       <c r="H989">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="990" spans="1:8">
@@ -26132,7 +26132,7 @@
         <v>-3067904.5522772</v>
       </c>
       <c r="H990">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="991" spans="1:8">
@@ -26158,7 +26158,7 @@
         <v>-3068404.5522772</v>
       </c>
       <c r="H991">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="992" spans="1:8">
@@ -26184,7 +26184,7 @@
         <v>-3068511.2125772</v>
       </c>
       <c r="H992">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="993" spans="1:8">
@@ -26210,7 +26210,7 @@
         <v>-3068788.2974772</v>
       </c>
       <c r="H993">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="994" spans="1:8">
@@ -26236,7 +26236,7 @@
         <v>-3067417.9610772</v>
       </c>
       <c r="H994">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="995" spans="1:8">
@@ -26314,7 +26314,7 @@
         <v>-3074506.8028772</v>
       </c>
       <c r="H997">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="998" spans="1:8">
@@ -26366,7 +26366,7 @@
         <v>-3075023.2368772</v>
       </c>
       <c r="H999">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1000" spans="1:8">
@@ -26392,7 +26392,7 @@
         <v>-3075023.2368772</v>
       </c>
       <c r="H1000">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1001" spans="1:8">
@@ -26418,7 +26418,7 @@
         <v>-3075023.2368772</v>
       </c>
       <c r="H1001">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1002" spans="1:8">
@@ -26444,7 +26444,7 @@
         <v>-3075024.2368772</v>
       </c>
       <c r="H1002">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1003" spans="1:8">
@@ -27120,7 +27120,7 @@
         <v>-3086631.3089772</v>
       </c>
       <c r="H1028">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1029" spans="1:8">
@@ -27146,7 +27146,7 @@
         <v>-3086628.4600772</v>
       </c>
       <c r="H1029">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1030" spans="1:8">
@@ -27172,7 +27172,7 @@
         <v>-3086528.4600772</v>
       </c>
       <c r="H1030">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1031" spans="1:8">
@@ -27198,7 +27198,7 @@
         <v>-3086528.4600772</v>
       </c>
       <c r="H1031">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1032" spans="1:8">
@@ -27224,7 +27224,7 @@
         <v>-3086894.209077199</v>
       </c>
       <c r="H1032">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1033" spans="1:8">
@@ -27250,7 +27250,7 @@
         <v>-3086895.3090772</v>
       </c>
       <c r="H1033">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1034" spans="1:8">
@@ -27276,7 +27276,7 @@
         <v>-3086317.1340772</v>
       </c>
       <c r="H1034">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1035" spans="1:8">
@@ -29850,7 +29850,7 @@
         <v>-3090181.55063904</v>
       </c>
       <c r="H1133">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
